--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H2">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I2">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J2">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.343040621923993</v>
+        <v>0.4030655</v>
       </c>
       <c r="N2">
-        <v>0.343040621923993</v>
+        <v>0.8061309999999999</v>
       </c>
       <c r="O2">
-        <v>0.01217833549845951</v>
+        <v>0.01062191174620465</v>
       </c>
       <c r="P2">
-        <v>0.01217833549845951</v>
+        <v>0.01057308397011603</v>
       </c>
       <c r="Q2">
-        <v>0.2123181349532498</v>
+        <v>0.2575028283955</v>
       </c>
       <c r="R2">
-        <v>0.2123181349532498</v>
+        <v>1.030011313582</v>
       </c>
       <c r="S2">
-        <v>0.001537286185902807</v>
+        <v>0.001124019387051309</v>
       </c>
       <c r="T2">
-        <v>0.001537286185902807</v>
+        <v>0.0008068409697590172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.618930008237604</v>
+        <v>0.638861</v>
       </c>
       <c r="H3">
-        <v>0.618930008237604</v>
+        <v>1.277722</v>
       </c>
       <c r="I3">
-        <v>0.1262312231500984</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J3">
-        <v>0.1262312231500984</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>27.8250634648279</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N3">
-        <v>27.8250634648279</v>
+        <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.9878216645015405</v>
+        <v>0.002820533321653765</v>
       </c>
       <c r="P3">
-        <v>0.9878216645015405</v>
+        <v>0.004211351453895939</v>
       </c>
       <c r="Q3">
-        <v>17.22176675949779</v>
+        <v>0.06837707987633335</v>
       </c>
       <c r="R3">
-        <v>17.22176675949779</v>
+        <v>0.410262479258</v>
       </c>
       <c r="S3">
-        <v>0.1246939369641956</v>
+        <v>0.0002984711425884196</v>
       </c>
       <c r="T3">
-        <v>0.1246939369641956</v>
+        <v>0.0003213717871399973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.08094893972871</v>
+        <v>0.638861</v>
       </c>
       <c r="H4">
-        <v>3.08094893972871</v>
+        <v>1.277722</v>
       </c>
       <c r="I4">
-        <v>0.6283617661912632</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J4">
-        <v>0.6283617661912632</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.343040621923993</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>0.343040621923993</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.01217833549845951</v>
+        <v>0.001647806569754003</v>
       </c>
       <c r="P4">
-        <v>0.01217833549845951</v>
+        <v>0.002460347672547249</v>
       </c>
       <c r="Q4">
-        <v>1.056890640400604</v>
+        <v>0.03994712651533333</v>
       </c>
       <c r="R4">
-        <v>1.056890640400604</v>
+        <v>0.239682759092</v>
       </c>
       <c r="S4">
-        <v>0.007652400403081775</v>
+        <v>0.0001743722387051293</v>
       </c>
       <c r="T4">
-        <v>0.007652400403081775</v>
+        <v>0.0001877512093607801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.08094893972871</v>
+        <v>0.638861</v>
       </c>
       <c r="H5">
-        <v>3.08094893972871</v>
+        <v>1.277722</v>
       </c>
       <c r="I5">
-        <v>0.6283617661912632</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J5">
-        <v>0.6283617661912632</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>27.8250634648279</v>
+        <v>0.1809256666666667</v>
       </c>
       <c r="N5">
-        <v>27.8250634648279</v>
+        <v>0.542777</v>
       </c>
       <c r="O5">
-        <v>0.9878216645015405</v>
+        <v>0.004767901157396439</v>
       </c>
       <c r="P5">
-        <v>0.9878216645015405</v>
+        <v>0.007118975449458798</v>
       </c>
       <c r="Q5">
-        <v>85.72759977984559</v>
+        <v>0.1155863523323333</v>
       </c>
       <c r="R5">
-        <v>85.72759977984559</v>
+        <v>0.693518113994</v>
       </c>
       <c r="S5">
-        <v>0.6207093657881814</v>
+        <v>0.0005045431994266841</v>
       </c>
       <c r="T5">
-        <v>0.6207093657881814</v>
+        <v>0.0005432550305631344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.334556478181017</v>
+        <v>0.638861</v>
       </c>
       <c r="H6">
-        <v>0.334556478181017</v>
+        <v>1.277722</v>
       </c>
       <c r="I6">
-        <v>0.06823303587078063</v>
+        <v>0.1058208177499626</v>
       </c>
       <c r="J6">
-        <v>0.06823303587078063</v>
+        <v>0.07631084478658147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.343040621923993</v>
+        <v>37.1930565</v>
       </c>
       <c r="N6">
-        <v>0.343040621923993</v>
+        <v>74.38611299999999</v>
       </c>
       <c r="O6">
-        <v>0.01217833549845951</v>
+        <v>0.9801418472049912</v>
       </c>
       <c r="P6">
-        <v>0.01217833549845951</v>
+        <v>0.9756362414539819</v>
       </c>
       <c r="Q6">
-        <v>0.1147664623439169</v>
+        <v>23.7611932686465</v>
       </c>
       <c r="R6">
-        <v>0.1147664623439169</v>
+        <v>95.04477307458599</v>
       </c>
       <c r="S6">
-        <v>0.0008309648029127888</v>
+        <v>0.103719411782191</v>
       </c>
       <c r="T6">
-        <v>0.0008309648029127888</v>
+        <v>0.07445162578975853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.334556478181017</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H7">
-        <v>0.334556478181017</v>
+        <v>10.547429</v>
       </c>
       <c r="I7">
-        <v>0.06823303587078063</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J7">
-        <v>0.06823303587078063</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.8250634648279</v>
+        <v>0.4030655</v>
       </c>
       <c r="N7">
-        <v>27.8250634648279</v>
+        <v>0.8061309999999999</v>
       </c>
       <c r="O7">
-        <v>0.9878216645015405</v>
+        <v>0.01062191174620465</v>
       </c>
       <c r="P7">
-        <v>0.9878216645015405</v>
+        <v>0.01057308397011603</v>
       </c>
       <c r="Q7">
-        <v>9.309055237956109</v>
+        <v>1.417101581199833</v>
       </c>
       <c r="R7">
-        <v>9.309055237956109</v>
+        <v>8.502609487199001</v>
       </c>
       <c r="S7">
-        <v>0.06740207106786784</v>
+        <v>0.0061857559414579</v>
       </c>
       <c r="T7">
-        <v>0.06740207106786784</v>
+        <v>0.006660367312157403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.151260163562026</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H8">
-        <v>0.151260163562026</v>
+        <v>10.547429</v>
       </c>
       <c r="I8">
-        <v>0.03084961983777089</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J8">
-        <v>0.03084961983777089</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.343040621923993</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N8">
-        <v>0.343040621923993</v>
+        <v>0.321089</v>
       </c>
       <c r="O8">
-        <v>0.01217833549845951</v>
+        <v>0.002820533321653765</v>
       </c>
       <c r="P8">
-        <v>0.01217833549845951</v>
+        <v>0.004211351453895939</v>
       </c>
       <c r="Q8">
-        <v>0.0518883805806423</v>
+        <v>0.3762959366867779</v>
       </c>
       <c r="R8">
-        <v>0.0518883805806423</v>
+        <v>3.386663430181001</v>
       </c>
       <c r="S8">
-        <v>0.0003756970203843059</v>
+        <v>0.001642560319589724</v>
       </c>
       <c r="T8">
-        <v>0.0003756970203843059</v>
+        <v>0.00265288232296402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.151260163562026</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H9">
-        <v>0.151260163562026</v>
+        <v>10.547429</v>
       </c>
       <c r="I9">
-        <v>0.03084961983777089</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J9">
-        <v>0.03084961983777089</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>27.8250634648279</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>27.8250634648279</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.9878216645015405</v>
+        <v>0.001647806569754003</v>
       </c>
       <c r="P9">
-        <v>0.9878216645015405</v>
+        <v>0.002460347672547249</v>
       </c>
       <c r="Q9">
-        <v>4.208823650813622</v>
+        <v>0.2198388907104445</v>
       </c>
       <c r="R9">
-        <v>4.208823650813622</v>
+        <v>1.978550016394</v>
       </c>
       <c r="S9">
-        <v>0.03047392281738658</v>
+        <v>0.0009596134408545853</v>
       </c>
       <c r="T9">
-        <v>0.03047392281738658</v>
+        <v>0.001549861824713798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.717449549759424</v>
+        <v>3.515809666666667</v>
       </c>
       <c r="H10">
-        <v>0.717449549759424</v>
+        <v>10.547429</v>
       </c>
       <c r="I10">
-        <v>0.1463243549500871</v>
+        <v>0.5823580622074128</v>
       </c>
       <c r="J10">
-        <v>0.1463243549500871</v>
+        <v>0.6299361029367015</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.343040621923993</v>
+        <v>0.1809256666666667</v>
       </c>
       <c r="N10">
-        <v>0.343040621923993</v>
+        <v>0.542777</v>
       </c>
       <c r="O10">
-        <v>0.01217833549845951</v>
+        <v>0.004767901157396439</v>
       </c>
       <c r="P10">
-        <v>0.01217833549845951</v>
+        <v>0.007118975449458798</v>
       </c>
       <c r="Q10">
-        <v>0.2461143397485616</v>
+        <v>0.6361002078147778</v>
       </c>
       <c r="R10">
-        <v>0.2461143397485616</v>
+        <v>5.724901870333</v>
       </c>
       <c r="S10">
-        <v>0.001781987086177835</v>
+        <v>0.002776625678817871</v>
       </c>
       <c r="T10">
-        <v>0.001781987086177835</v>
+        <v>0.004484499651534128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.515809666666667</v>
+      </c>
+      <c r="H11">
+        <v>10.547429</v>
+      </c>
+      <c r="I11">
+        <v>0.5823580622074128</v>
+      </c>
+      <c r="J11">
+        <v>0.6299361029367015</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>37.1930565</v>
+      </c>
+      <c r="N11">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P11">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q11">
+        <v>130.7637075755795</v>
+      </c>
+      <c r="R11">
+        <v>784.5822454534771</v>
+      </c>
+      <c r="S11">
+        <v>0.5707935068266928</v>
+      </c>
+      <c r="T11">
+        <v>0.6145884918253322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3944533333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.18336</v>
+      </c>
+      <c r="I12">
+        <v>0.06533717709725886</v>
+      </c>
+      <c r="J12">
+        <v>0.0706751556963479</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4030655</v>
+      </c>
+      <c r="N12">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P12">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q12">
+        <v>0.1589905300266667</v>
+      </c>
+      <c r="R12">
+        <v>0.9539431801599999</v>
+      </c>
+      <c r="S12">
+        <v>0.0006940057288732276</v>
+      </c>
+      <c r="T12">
+        <v>0.0007472543557785109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3944533333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.18336</v>
+      </c>
+      <c r="I13">
+        <v>0.06533717709725886</v>
+      </c>
+      <c r="J13">
+        <v>0.0706751556963479</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.321089</v>
+      </c>
+      <c r="O13">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P13">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q13">
+        <v>0.04221820878222222</v>
+      </c>
+      <c r="R13">
+        <v>0.37996387904</v>
+      </c>
+      <c r="S13">
+        <v>0.0001842856851456118</v>
+      </c>
+      <c r="T13">
+        <v>0.0002976379196961366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3944533333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.18336</v>
+      </c>
+      <c r="I14">
+        <v>0.06533717709725886</v>
+      </c>
+      <c r="J14">
+        <v>0.0706751556963479</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.187586</v>
+      </c>
+      <c r="O14">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P14">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q14">
+        <v>0.02466464099555555</v>
+      </c>
+      <c r="R14">
+        <v>0.22198176896</v>
+      </c>
+      <c r="S14">
+        <v>0.0001076630296700439</v>
+      </c>
+      <c r="T14">
+        <v>0.000173885454824424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3944533333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.18336</v>
+      </c>
+      <c r="I15">
+        <v>0.06533717709725886</v>
+      </c>
+      <c r="J15">
+        <v>0.0706751556963479</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.542777</v>
+      </c>
+      <c r="O15">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P15">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q15">
+        <v>0.07136673230222221</v>
+      </c>
+      <c r="R15">
+        <v>0.6423005907199999</v>
+      </c>
+      <c r="S15">
+        <v>0.0003115212023030367</v>
+      </c>
+      <c r="T15">
+        <v>0.0005031346982889789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3944533333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.18336</v>
+      </c>
+      <c r="I16">
+        <v>0.06533717709725886</v>
+      </c>
+      <c r="J16">
+        <v>0.0706751556963479</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.1930565</v>
+      </c>
+      <c r="N16">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O16">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P16">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q16">
+        <v>14.67092511328</v>
+      </c>
+      <c r="R16">
+        <v>88.02555067967999</v>
+      </c>
+      <c r="S16">
+        <v>0.06403970145126694</v>
+      </c>
+      <c r="T16">
+        <v>0.06895324326775984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.252255</v>
+      </c>
+      <c r="I17">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J17">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4030655</v>
+      </c>
+      <c r="N17">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P17">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q17">
+        <v>0.1682469292341666</v>
+      </c>
+      <c r="R17">
+        <v>1.009481575405</v>
+      </c>
+      <c r="S17">
+        <v>0.0007344106138538936</v>
+      </c>
+      <c r="T17">
+        <v>0.0007907593659540791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.252255</v>
+      </c>
+      <c r="I18">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J18">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.321089</v>
+      </c>
+      <c r="O18">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P18">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q18">
+        <v>0.04467614507722222</v>
+      </c>
+      <c r="R18">
+        <v>0.402085305695</v>
+      </c>
+      <c r="S18">
+        <v>0.0001950147635985821</v>
+      </c>
+      <c r="T18">
+        <v>0.0003149663442478076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.252255</v>
+      </c>
+      <c r="I19">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J19">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.187586</v>
+      </c>
+      <c r="O19">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P19">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q19">
+        <v>0.02610061182555555</v>
+      </c>
+      <c r="R19">
+        <v>0.23490550643</v>
+      </c>
+      <c r="S19">
+        <v>0.0001139311513144443</v>
+      </c>
+      <c r="T19">
+        <v>0.0001840090337945841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.717449549759424</v>
-      </c>
-      <c r="H11">
-        <v>0.717449549759424</v>
-      </c>
-      <c r="I11">
-        <v>0.1463243549500871</v>
-      </c>
-      <c r="J11">
-        <v>0.1463243549500871</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="N11">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="O11">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="P11">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="Q11">
-        <v>19.96307925486817</v>
-      </c>
-      <c r="R11">
-        <v>19.96307925486817</v>
-      </c>
-      <c r="S11">
-        <v>0.1445423678639092</v>
-      </c>
-      <c r="T11">
-        <v>0.1445423678639092</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.252255</v>
+      </c>
+      <c r="I20">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J20">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.542777</v>
+      </c>
+      <c r="O20">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P20">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q20">
+        <v>0.0755216902372222</v>
+      </c>
+      <c r="R20">
+        <v>0.6796952121349998</v>
+      </c>
+      <c r="S20">
+        <v>0.0003296579089964078</v>
+      </c>
+      <c r="T20">
+        <v>0.0005324271072250753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4174183333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.252255</v>
+      </c>
+      <c r="I21">
+        <v>0.06914109544511213</v>
+      </c>
+      <c r="J21">
+        <v>0.07478985016945827</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.1930565</v>
+      </c>
+      <c r="N21">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O21">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P21">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q21">
+        <v>15.5250636558025</v>
+      </c>
+      <c r="R21">
+        <v>93.15038193481499</v>
+      </c>
+      <c r="S21">
+        <v>0.06776808100734881</v>
+      </c>
+      <c r="T21">
+        <v>0.07296768831823672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.341576</v>
+      </c>
+      <c r="H22">
+        <v>1.024728</v>
+      </c>
+      <c r="I22">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J22">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4030655</v>
+      </c>
+      <c r="N22">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P22">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q22">
+        <v>0.137677501228</v>
+      </c>
+      <c r="R22">
+        <v>0.826065007368</v>
+      </c>
+      <c r="S22">
+        <v>0.00060097274078624</v>
+      </c>
+      <c r="T22">
+        <v>0.000647083272620506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.341576</v>
+      </c>
+      <c r="H23">
+        <v>1.024728</v>
+      </c>
+      <c r="I23">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J23">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.321089</v>
+      </c>
+      <c r="O23">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P23">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q23">
+        <v>0.03655876542133334</v>
+      </c>
+      <c r="R23">
+        <v>0.329028888792</v>
+      </c>
+      <c r="S23">
+        <v>0.0001595817853974214</v>
+      </c>
+      <c r="T23">
+        <v>0.0002577389046227544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.341576</v>
+      </c>
+      <c r="H24">
+        <v>1.024728</v>
+      </c>
+      <c r="I24">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J24">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.187586</v>
+      </c>
+      <c r="O24">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P24">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q24">
+        <v>0.02135829184533334</v>
+      </c>
+      <c r="R24">
+        <v>0.192224626608</v>
+      </c>
+      <c r="S24">
+        <v>9.323056472056247E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001505757287311743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.341576</v>
+      </c>
+      <c r="H25">
+        <v>1.024728</v>
+      </c>
+      <c r="I25">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J25">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.542777</v>
+      </c>
+      <c r="O25">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P25">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q25">
+        <v>0.06179986551733334</v>
+      </c>
+      <c r="R25">
+        <v>0.556198789656</v>
+      </c>
+      <c r="S25">
+        <v>0.0002697611027866298</v>
+      </c>
+      <c r="T25">
+        <v>0.0004356883899305949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.341576</v>
+      </c>
+      <c r="H26">
+        <v>1.024728</v>
+      </c>
+      <c r="I26">
+        <v>0.0565785853945713</v>
+      </c>
+      <c r="J26">
+        <v>0.06120099627028732</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>37.1930565</v>
+      </c>
+      <c r="N26">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O26">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P26">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q26">
+        <v>12.704255467044</v>
+      </c>
+      <c r="R26">
+        <v>76.225532802264</v>
+      </c>
+      <c r="S26">
+        <v>0.05545503920088045</v>
+      </c>
+      <c r="T26">
+        <v>0.05970990997438228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7290775</v>
+      </c>
+      <c r="H27">
+        <v>1.458155</v>
+      </c>
+      <c r="I27">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J27">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4030655</v>
+      </c>
+      <c r="N27">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P27">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q27">
+        <v>0.29386598707625</v>
+      </c>
+      <c r="R27">
+        <v>1.175463948305</v>
+      </c>
+      <c r="S27">
+        <v>0.001282747334182085</v>
+      </c>
+      <c r="T27">
+        <v>0.0009207786938465173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7290775</v>
+      </c>
+      <c r="H28">
+        <v>1.458155</v>
+      </c>
+      <c r="I28">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J28">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.321089</v>
+      </c>
+      <c r="O28">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P28">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q28">
+        <v>0.07803292179916668</v>
+      </c>
+      <c r="R28">
+        <v>0.468197530795</v>
+      </c>
+      <c r="S28">
+        <v>0.0003406196253340061</v>
+      </c>
+      <c r="T28">
+        <v>0.0003667541752252232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7290775</v>
+      </c>
+      <c r="H29">
+        <v>1.458155</v>
+      </c>
+      <c r="I29">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J29">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.187586</v>
+      </c>
+      <c r="O29">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P29">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q29">
+        <v>0.04558824397166666</v>
+      </c>
+      <c r="R29">
+        <v>0.27352946383</v>
+      </c>
+      <c r="S29">
+        <v>0.0001989961444892378</v>
+      </c>
+      <c r="T29">
+        <v>0.0002142644211224885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7290775</v>
+      </c>
+      <c r="H30">
+        <v>1.458155</v>
+      </c>
+      <c r="I30">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J30">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.542777</v>
+      </c>
+      <c r="O30">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P30">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q30">
+        <v>0.1319088327391667</v>
+      </c>
+      <c r="R30">
+        <v>0.791452996435</v>
+      </c>
+      <c r="S30">
+        <v>0.0005757920650658098</v>
+      </c>
+      <c r="T30">
+        <v>0.0006199705719168859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7290775</v>
+      </c>
+      <c r="H31">
+        <v>1.458155</v>
+      </c>
+      <c r="I31">
+        <v>0.1207642621056823</v>
+      </c>
+      <c r="J31">
+        <v>0.08708705014062347</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.1930565</v>
+      </c>
+      <c r="N31">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O31">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P31">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q31">
+        <v>27.11662065037875</v>
+      </c>
+      <c r="R31">
+        <v>108.466482601515</v>
+      </c>
+      <c r="S31">
+        <v>0.1183661069366112</v>
+      </c>
+      <c r="T31">
+        <v>0.08496528227851234</v>
       </c>
     </row>
   </sheetData>
